--- a/biology/Zoologie/Chamaelimnas/Chamaelimnas.xlsx
+++ b/biology/Zoologie/Chamaelimnas/Chamaelimnas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaelimnas est un genre d'insectes lépidoptères de la famille des Riodinidae originaires d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Chamaelimnas leur a été donné par Cajetan Freiherr von Felder et Rudolf Felder en 1865.
 </t>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chamaelimnas briola Bates, 1868 ; présent au Costa Rica, en Colombie, en Guyane, en Équateur, au Brésil, au Paraguay, en Argentine et au Pérou
 Chamaelimnas cercides Hewitson, 1871 ; présent au Venezuela
 Chamaelimnas cydonia Stichel, 1910 ; présent à Panama et en Colombie
 Chamaelimnas joviana Schaus, 1902 ; présent en Bolivie, en Argentine et au Pérou
 Chamaelimnas splendens Grose-Smith, 1902 ; présent en Bolivie
-Chamaelimnas tircis C. &amp; R. Felder, [1865] ; présent en Bolivie, au Brésil et au Pérou</t>
+Chamaelimnas tircis C. &amp; R. Felder,  ; présent en Bolivie, au Brésil et au Pérou</t>
         </is>
       </c>
     </row>
